--- a/biology/Zoologie/Des_insectes_et_des_hommes/Des_insectes_et_des_hommes.xlsx
+++ b/biology/Zoologie/Des_insectes_et_des_hommes/Des_insectes_et_des_hommes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Des insectes et des hommes (titre original : The Hellstrom Chronicle)  est un film documentaire américain réalisé par Walon Green et Ed Spiegel, et sorti en 1971.
 Il a obtenu l'Oscar du meilleur film documentaire en 1972.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un scientifique, le Professeur Hellstrom, explique la violence et la sauvagerie du monde des insectes. Il filme entre autres les guerres opposant des colonies de fourmis, et les mœurs cannibales des mantes religieuses.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Hellstrom Chronicle
 Réalisation : Walon Green et Ed Spiegel
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lawrence Pressman : Professeur Hellstrom</t>
         </is>
@@ -610,10 +628,12 @@
           <t>Nominations et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Oscar du meilleur film documentaire en 1972
-Il a été présenté hors compétition au Festival de Cannes 1971[1]
+Il a été présenté hors compétition au Festival de Cannes 1971
 Il a remporté le Prix Vulcain de l'artiste technicien en 1971</t>
         </is>
       </c>
